--- a/test/data/metabolite.xlsx
+++ b/test/data/metabolite.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99090FC-8013-1243-9EA8-9FA65F5032B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
-    <sheet name="col_attribute_mapping" sheetId="2" r:id="rId5"/>
-    <sheet name="col_mapping" sheetId="3" r:id="rId6"/>
-    <sheet name="row_attribute_mapping" sheetId="4" r:id="rId7"/>
-    <sheet name="row_mapping" sheetId="5" r:id="rId8"/>
-    <sheet name="metadata" sheetId="6" r:id="rId9"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="col_attribute_mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="col_mapping" sheetId="3" r:id="rId3"/>
+    <sheet name="row_attribute_mapping" sheetId="4" r:id="rId4"/>
+    <sheet name="row_mapping" sheetId="5" r:id="rId5"/>
+    <sheet name="metadata" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>instance_1</t>
   </si>
@@ -190,28 +199,27 @@
   </si>
   <si>
     <t>MSMS</t>
+  </si>
+  <si>
+    <t>Predicted Formula</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -465,98 +473,72 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,26 +547,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -786,7 +827,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -805,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,9 +1097,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1075,7 +1122,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1094,7 +1141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,9 +1388,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1357,7 +1410,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1376,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1562,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1614,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,139 +1680,169 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="28" customWidth="1"/>
+    <col min="3" max="257" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>0.2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0.3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>0.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>0.7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
-        <v>1.1</v>
-      </c>
       <c r="E4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1767,54 +1850,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.8516" style="5" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="5" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="11">
@@ -1830,17 +1912,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1">
-      <c r="A3" t="s" s="13">
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="16">
@@ -1856,17 +1938,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1">
-      <c r="A4" t="s" s="13">
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="16">
@@ -1882,7 +1964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -1892,7 +1974,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1902,7 +1984,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1912,7 +1994,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1922,7 +2004,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1932,7 +2014,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1944,7 +2026,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1952,101 +2034,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="20" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2055,7 +2136,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2063,86 +2144,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.8516" style="21" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="21" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="23">
+      <c r="B2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" ht="48" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="26">
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="25"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" ht="48" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s" s="26">
+      <c r="B4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="24"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2151,7 +2231,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2160,7 +2240,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2169,7 +2249,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2178,7 +2258,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2187,7 +2267,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2198,7 +2278,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2206,97 +2286,96 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="27" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="27" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2305,7 +2384,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2313,109 +2392,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="28" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="28" customWidth="1"/>
+    <col min="1" max="256" width="10.83203125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2424,7 +2502,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
